--- a/doc/sample.xlsx
+++ b/doc/sample.xlsx
@@ -52,7 +52,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$руб.-419];[RED]\-#,##0.00\ [$руб.-419]"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -78,57 +78,83 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="24"/>
       <color rgb="FF000000"/>
-      <name val="Lucida Sans"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lucida Sans"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Lucida Sans"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i val="true"/>
       <sz val="10"/>
       <color rgb="FF808080"/>
-      <name val="Lucida Sans"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
-      <name val="Lucida Sans"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
-      <name val="Lucida Sans"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
-      <name val="Lucida Sans"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Lucida Sans"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -251,22 +277,54 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -277,7 +335,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,7 +351,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -394,10 +452,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L13"/>
+  <dimension ref="A2:M13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
+      <selection pane="topLeft" activeCell="M21" activeCellId="0" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -406,12 +464,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>47218.36</v>
+        <v>47778.52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -469,15 +529,15 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="n">
-        <f aca="false"> C2*(D3 + (D3 / ((1 + D3)^C4 - 1)))</f>
+        <f aca="false">C2*(D3 + (D3 / ((1 + D3)^C4 - 1)))</f>
         <v>17156.1394185592</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="5" t="n">
-        <f aca="false"> I2*(J3 + (J3 / ((1 + J3)^I4 - 1)))</f>
-        <v>16002.5032062243</v>
+        <f aca="false">I2*(J3 + (J3 / ((1 + J3)^I4 - 1)))</f>
+        <v>16192.3438147503</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,6 +639,10 @@
         <f aca="false">$C$5-C10</f>
         <v>16595.9863815134</v>
       </c>
+      <c r="E10" s="5" t="n">
+        <f aca="false">D10+C10</f>
+        <v>17156.1394185593</v>
+      </c>
       <c r="H10" s="7" t="n">
         <v>2</v>
       </c>
@@ -589,9 +653,13 @@
         <v>560.153037045872</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>16595.9863815134</v>
+        <v>19439.8469629541</v>
       </c>
       <c r="L10" s="3" t="n">
+        <f aca="false">20000-J10</f>
+        <v>19439.8469629541</v>
+      </c>
+      <c r="M10" s="3" t="n">
         <v>20000</v>
       </c>
     </row>
@@ -616,16 +684,17 @@
       </c>
       <c r="I11" s="3" t="n">
         <f aca="false">I10-L10</f>
-        <v>47218.3644455046</v>
+        <v>47778.5174825505</v>
       </c>
       <c r="J11" s="3" t="n">
         <f aca="false">I11*J$3</f>
-        <v>393.486370379205</v>
+        <v>398.154312354587</v>
       </c>
       <c r="K11" s="3" t="n">
         <f aca="false">I$5-J11</f>
-        <v>15609.0168358451</v>
-      </c>
+        <v>15794.1895023957</v>
+      </c>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
@@ -648,15 +717,15 @@
       </c>
       <c r="I12" s="3" t="n">
         <f aca="false">I11-K11</f>
-        <v>31609.3476096595</v>
+        <v>31984.3279801548</v>
       </c>
       <c r="J12" s="3" t="n">
         <f aca="false">I12*J$3</f>
-        <v>263.411230080496</v>
+        <v>266.53606650129</v>
       </c>
       <c r="K12" s="3" t="n">
         <f aca="false">I$5-J12</f>
-        <v>15739.0919761438</v>
+        <v>15925.807748249</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,15 +749,15 @@
       </c>
       <c r="I13" s="3" t="n">
         <f aca="false">I12-K12</f>
-        <v>15870.2556335157</v>
+        <v>16058.5202319058</v>
       </c>
       <c r="J13" s="3" t="n">
         <f aca="false">I13*J$3</f>
-        <v>132.252130279298</v>
+        <v>133.821001932548</v>
       </c>
       <c r="K13" s="3" t="n">
         <f aca="false">I$5-J13</f>
-        <v>15870.251075945</v>
+        <v>16058.5228128177</v>
       </c>
     </row>
   </sheetData>

--- a/doc/sample.xlsx
+++ b/doc/sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
   <si>
     <t xml:space="preserve">Размер кредита</t>
   </si>
@@ -452,10 +452,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:M13"/>
+  <dimension ref="A2:M33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M21" activeCellId="0" sqref="M21"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -470,7 +470,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -758,6 +758,179 @@
       <c r="K13" s="3" t="n">
         <f aca="false">I$5-J13</f>
         <v>16058.5228128177</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">C23/12</f>
+        <v>0.00833333333333333</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <f aca="false">C22*(D23 + (D23 / ((1 + D23)^C24 - 1)))</f>
+        <v>17156.1394185592</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <f aca="false">C22</f>
+        <v>100000</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <f aca="false">B28*$D$3</f>
+        <v>833.333333333333</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <f aca="false">$C$5-C28</f>
+        <v>16322.8060852259</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <f aca="false">D28+C28</f>
+        <v>17156.1394185592</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <f aca="false">B28-D28</f>
+        <v>83677.1939147741</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <f aca="false">B29*$D$3</f>
+        <v>697.309949289784</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <f aca="false">$C$5-C29</f>
+        <v>16458.8294692694</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <f aca="false">D29+C29</f>
+        <v>17156.1394185592</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <f aca="false">B29-D29</f>
+        <v>67218.3644455047</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <f aca="false">B30*$D$3</f>
+        <v>560.153037045872</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <f aca="false">E30-C30</f>
+        <v>33330.2769629541</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>33890.43</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <f aca="false">B30-D30</f>
+        <v>33888.0874825506</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <f aca="false">B31*$D$3</f>
+        <v>282.400729021255</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <f aca="false">$C$5-C31</f>
+        <v>16873.7386895379</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <f aca="false">D31+C31</f>
+        <v>17156.1394185592</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <f aca="false">B31-D31</f>
+        <v>17014.3487930126</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <f aca="false">B32*$D$3</f>
+        <v>141.786239941772</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <f aca="false">$C$5-C32</f>
+        <v>17014.3531786174</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <f aca="false">D32+C32</f>
+        <v>17156.1394185592</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <f aca="false">B32-D32</f>
+        <v>-0.00438560478505679</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <f aca="false">B33*$D$3</f>
+        <v>-3.65467065421399E-005</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <f aca="false">D33+C33</f>
+        <v>-3.65467065421399E-005</v>
       </c>
     </row>
   </sheetData>

--- a/doc/sample.xlsx
+++ b/doc/sample.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">Досрочное погашение уменьшаем платеж</t>
+  </si>
   <si>
     <t xml:space="preserve">Размер кредита</t>
   </si>
@@ -40,7 +43,10 @@
     <t xml:space="preserve">Основной долг</t>
   </si>
   <si>
-    <t xml:space="preserve">Досрочное погашение уменьшаем платеж</t>
+    <t xml:space="preserve">Досрочное погашение уменьшаем срок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Досрочное погашение уменьшаем платеж и срок</t>
   </si>
 </sst>
 </file>
@@ -159,16 +165,16 @@
       <charset val="204"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -326,8 +332,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,7 +345,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -351,7 +361,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -452,10 +462,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="L30" activeCellId="0" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -474,35 +484,42 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="n">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="n">
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="n">
         <v>47778.52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="n">
         <v>0.1</v>
       </c>
       <c r="D3" s="0" t="n">
         <f aca="false">C3/12</f>
         <v>0.00833333333333333</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>0.1</v>
       </c>
       <c r="J3" s="0" t="n">
@@ -511,426 +528,601 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>2</v>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="n">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="n">
         <f aca="false">C2*(D3 + (D3 / ((1 + D3)^C4 - 1)))</f>
         <v>17156.1394185592</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="6" t="n">
         <f aca="false">I2*(J3 + (J3 / ((1 + J3)^I4 - 1)))</f>
         <v>16192.3438147503</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <f aca="false">C2</f>
         <v>100000</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <f aca="false">B8*$D$3</f>
         <v>833.333333333333</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <f aca="false">$C$5-C8</f>
         <v>16322.8060852259</v>
       </c>
-      <c r="H8" s="7" t="n">
+      <c r="H8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="4" t="n">
         <v>100000</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="J8" s="4" t="n">
         <v>833.333333333333</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="4" t="n">
         <v>16322.8060852259</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <f aca="false">B8-D8</f>
         <v>83677.1939147741</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <f aca="false">B9*$D$3</f>
         <v>697.309949289784</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <f aca="false">$C$5-C9</f>
         <v>16458.8294692695</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="H9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="4" t="n">
         <v>83677.1939147741</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="J9" s="4" t="n">
         <v>697.309949289784</v>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="K9" s="4" t="n">
         <v>16458.8294692695</v>
       </c>
-      <c r="L9" s="0" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <f aca="false">B9-D9</f>
         <v>67218.3644455046</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <f aca="false">B10*$D$3</f>
         <v>560.153037045872</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <f aca="false">$C$5-C10</f>
         <v>16595.9863815134</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="6" t="n">
         <f aca="false">D10+C10</f>
         <v>17156.1394185593</v>
       </c>
-      <c r="H10" s="7" t="n">
+      <c r="H10" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="4" t="n">
         <v>67218.3644455046</v>
       </c>
-      <c r="J10" s="3" t="n">
+      <c r="J10" s="4" t="n">
         <v>560.153037045872</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="4" t="n">
         <v>19439.8469629541</v>
       </c>
-      <c r="L10" s="3" t="n">
+      <c r="L10" s="4" t="n">
         <f aca="false">20000-J10</f>
         <v>19439.8469629541</v>
       </c>
-      <c r="M10" s="3" t="n">
+      <c r="M10" s="4" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <f aca="false">B10-D10</f>
         <v>50622.3780639913</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <f aca="false">B11*$D$3</f>
         <v>421.853150533261</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <f aca="false">$C$5-C11</f>
         <v>16734.286268026</v>
       </c>
-      <c r="H11" s="7" t="n">
+      <c r="H11" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="4" t="n">
         <f aca="false">I10-L10</f>
         <v>47778.5174825505</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="J11" s="4" t="n">
         <f aca="false">I11*J$3</f>
         <v>398.154312354587</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="K11" s="4" t="n">
         <f aca="false">I$5-J11</f>
         <v>15794.1895023957</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <f aca="false">B11-D11</f>
         <v>33888.0917959653</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <f aca="false">B12*$D$3</f>
         <v>282.400764966377</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <f aca="false">$C$5-C12</f>
         <v>16873.7386535929</v>
       </c>
-      <c r="H12" s="7" t="n">
+      <c r="H12" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="4" t="n">
         <f aca="false">I11-K11</f>
         <v>31984.3279801548</v>
       </c>
-      <c r="J12" s="3" t="n">
+      <c r="J12" s="4" t="n">
         <f aca="false">I12*J$3</f>
         <v>266.53606650129</v>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="K12" s="4" t="n">
         <f aca="false">I$5-J12</f>
         <v>15925.807748249</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <f aca="false">B12-D12</f>
         <v>17014.3531423724</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <f aca="false">B13*$D$3</f>
         <v>141.786276186437</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <f aca="false">$C$5-C13</f>
         <v>17014.3531423728</v>
       </c>
-      <c r="H13" s="7" t="n">
+      <c r="H13" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="4" t="n">
         <f aca="false">I12-K12</f>
         <v>16058.5202319058</v>
       </c>
-      <c r="J13" s="3" t="n">
+      <c r="J13" s="4" t="n">
         <f aca="false">I13*J$3</f>
         <v>133.821001932548</v>
       </c>
-      <c r="K13" s="3" t="n">
+      <c r="K13" s="4" t="n">
         <f aca="false">I$5-J13</f>
         <v>16058.5228128177</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="6" t="n">
+        <f aca="false">SUM(C8:C13)</f>
+        <v>2936.83651135506</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <f aca="false">SUM(D8:D13)</f>
+        <v>100000</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <f aca="false">SUM(J8:J13)</f>
+        <v>2889.30770045741</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <f aca="false">SUM(K8:K13)</f>
+        <v>100000.002580912</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2" t="n">
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="n">
         <v>100000</v>
       </c>
+      <c r="H22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>47778.52</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4" t="n">
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5" t="n">
         <v>0.1</v>
       </c>
       <c r="D23" s="0" t="n">
         <f aca="false">C23/12</f>
         <v>0.00833333333333333</v>
       </c>
+      <c r="H23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">I23/12</f>
+        <v>0.00833333333333333</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1" t="s">
-        <v>2</v>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="H24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="5" t="n">
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6" t="n">
         <f aca="false">C22*(D23 + (D23 / ((1 + D23)^C24 - 1)))</f>
         <v>17156.1394185592</v>
       </c>
+      <c r="H25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="6" t="n">
+        <f aca="false">I22*(J23 + (J23 / ((1 + J23)^I24 - 1)))</f>
+        <v>16192.3438147503</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <f aca="false">C22</f>
         <v>100000</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="4" t="n">
         <f aca="false">B28*$D$3</f>
         <v>833.333333333333</v>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="D28" s="4" t="n">
         <f aca="false">$C$5-C28</f>
         <v>16322.8060852259</v>
       </c>
-      <c r="E28" s="5" t="n">
+      <c r="E28" s="6" t="n">
         <f aca="false">D28+C28</f>
         <v>17156.1394185592</v>
       </c>
+      <c r="H28" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="J28" s="4" t="n">
+        <v>833.333333333333</v>
+      </c>
+      <c r="K28" s="4" t="n">
+        <v>16322.8060852259</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="n">
+      <c r="A29" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <f aca="false">B28-D28</f>
         <v>83677.1939147741</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="4" t="n">
         <f aca="false">B29*$D$3</f>
         <v>697.309949289784</v>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="D29" s="4" t="n">
         <f aca="false">$C$5-C29</f>
         <v>16458.8294692694</v>
       </c>
-      <c r="E29" s="5" t="n">
+      <c r="E29" s="6" t="n">
         <f aca="false">D29+C29</f>
         <v>17156.1394185592</v>
       </c>
+      <c r="H29" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <v>83677.1939147741</v>
+      </c>
+      <c r="J29" s="4" t="n">
+        <v>697.309949289784</v>
+      </c>
+      <c r="K29" s="4" t="n">
+        <v>16458.8294692695</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="n">
+      <c r="A30" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <f aca="false">B29-D29</f>
         <v>67218.3644455047</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="4" t="n">
         <f aca="false">B30*$D$3</f>
         <v>560.153037045872</v>
       </c>
-      <c r="D30" s="3" t="n">
+      <c r="D30" s="4" t="n">
         <f aca="false">E30-C30</f>
         <v>33330.2769629541</v>
       </c>
-      <c r="E30" s="5" t="n">
+      <c r="E30" s="6" t="n">
         <v>33890.43</v>
       </c>
+      <c r="H30" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>67218.3644455046</v>
+      </c>
+      <c r="J30" s="4" t="n">
+        <v>560.153037045872</v>
+      </c>
+      <c r="K30" s="4" t="n">
+        <v>19439.8469629541</v>
+      </c>
+      <c r="L30" s="4" t="n">
+        <f aca="false">20000-J30</f>
+        <v>19439.8469629541</v>
+      </c>
+      <c r="M30" s="4" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="n">
+      <c r="A31" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <f aca="false">B30-D30</f>
         <v>33888.0874825506</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" s="4" t="n">
         <f aca="false">B31*$D$3</f>
         <v>282.400729021255</v>
       </c>
-      <c r="D31" s="3" t="n">
+      <c r="D31" s="4" t="n">
         <f aca="false">$C$5-C31</f>
         <v>16873.7386895379</v>
       </c>
-      <c r="E31" s="5" t="n">
+      <c r="E31" s="6" t="n">
         <f aca="false">D31+C31</f>
         <v>17156.1394185592</v>
       </c>
+      <c r="H31" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <f aca="false">I30-L30</f>
+        <v>47778.5174825505</v>
+      </c>
+      <c r="J31" s="4" t="n">
+        <f aca="false">I31*J$3</f>
+        <v>398.154312354587</v>
+      </c>
+      <c r="K31" s="4" t="n">
+        <f aca="false">L31-J31</f>
+        <v>31719.9956876454</v>
+      </c>
+      <c r="L31" s="4" t="n">
+        <v>32118.15</v>
+      </c>
+      <c r="M31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="n">
+      <c r="A32" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <f aca="false">B31-D31</f>
         <v>17014.3487930126</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C32" s="4" t="n">
         <f aca="false">B32*$D$3</f>
         <v>141.786239941772</v>
       </c>
-      <c r="D32" s="3" t="n">
+      <c r="D32" s="4" t="n">
         <f aca="false">$C$5-C32</f>
         <v>17014.3531786174</v>
       </c>
-      <c r="E32" s="5" t="n">
+      <c r="E32" s="6" t="n">
         <f aca="false">D32+C32</f>
         <v>17156.1394185592</v>
       </c>
+      <c r="H32" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" s="4" t="n">
+        <f aca="false">I31-K31</f>
+        <v>16058.5217949051</v>
+      </c>
+      <c r="J32" s="4" t="n">
+        <f aca="false">I32*J$3</f>
+        <v>133.821014957542</v>
+      </c>
+      <c r="K32" s="4" t="n">
+        <f aca="false">I$5-J32</f>
+        <v>16058.5227997928</v>
+      </c>
+      <c r="L32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="n">
+      <c r="A33" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <f aca="false">B32-D32</f>
         <v>-0.00438560478505679</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="4" t="n">
         <f aca="false">B33*$D$3</f>
         <v>-3.65467065421399E-005</v>
       </c>
-      <c r="D33" s="3" t="n">
+      <c r="D33" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E33" s="5" t="n">
+      <c r="E33" s="6" t="n">
         <f aca="false">D33+C33</f>
         <v>-3.65467065421399E-005</v>
+      </c>
+      <c r="H33" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" s="4" t="n">
+        <f aca="false">I32-K32</f>
+        <v>-0.00100488770112861</v>
+      </c>
+      <c r="J33" s="4" t="n">
+        <f aca="false">I33*J$3</f>
+        <v>-8.37406417607174E-006</v>
+      </c>
+      <c r="K33" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="6" t="n">
+        <f aca="false">SUM(C28:C33)</f>
+        <v>2514.98325208531</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <f aca="false">SUM(D28:D33)</f>
+        <v>100000.004385605</v>
+      </c>
+      <c r="J34" s="6" t="n">
+        <f aca="false">SUM(J28:J33)</f>
+        <v>2622.77163860705</v>
+      </c>
+      <c r="K34" s="6" t="n">
+        <f aca="false">SUM(K28:K33)</f>
+        <v>100000.001004888</v>
       </c>
     </row>
   </sheetData>
